--- a/try.xlsx
+++ b/try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itay\OneDrive\OneDrive - Technion\Documents\Programming\Horizon\CallerFinder\CallerFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94A721D-8085-44EE-AA23-CF9BFE735112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839FD00E-E0A5-4E40-82C6-532633E98FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE0FC11B-410F-41F6-9B69-78DF7DBEA132}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>+972502714365</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>+972505838699</t>
   </si>
@@ -392,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5366BB87-7363-4BF0-B3E0-547C0B076E74}">
-  <dimension ref="A2:A11"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +407,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -423,36 +420,6 @@
         <v>972507844709</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>972509025688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>972509080873</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>972509150698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>972509288541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>972509402224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
